--- a/biology/Botanique/Desmarestia/Desmarestia.xlsx
+++ b/biology/Botanique/Desmarestia/Desmarestia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Desmarestia est un genre d'algues brunes de la famille des Desmarestiaceae. Il est nommé en honneur d’Anselme Gaëtan Desmarest, zoologiste français du XIXe siècle.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (3 février 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (3 février 2019) :
 Desmarestia aculeata (Linnaeus) J.V.Lamouroux (espèce type)
 Desmarestia anceps Montagne
 Desmarestia antarctica R.L.Moe &amp; P.C.Silva
@@ -539,7 +553,7 @@
 Desmarestia tortuosa A.R.O.Chapman
 Desmarestia tropica W.R.Taylor
 Desmarestia viridis (O.F.Müller) J.V.Lamouroux
-Selon ITIS      (3 février 2019)[3] :
+Selon ITIS      (3 février 2019) :
 Desmarestia aculeata
 Desmarestia dresnayi
 Desmarestia intermedia
@@ -547,7 +561,7 @@
 Desmarestia latifrons Kütz.
 Desmarestia ligulata Lightfoot
 Desmarestia viridis Mull.
-Selon NCBI  (3 février 2019)[4] :
+Selon NCBI  (3 février 2019) :
 Desmarestia aculeata
 Desmarestia anceps
 Desmarestia antarctica
@@ -569,7 +583,7 @@
 Desmarestia peruviana Montagne 1839
 Desmarestia tabacoides Okamura 1908
 Desmarestia viridis
-Selon World Register of Marine Species                               (3 février 2019)[2] :
+Selon World Register of Marine Species                               (3 février 2019) :
 Desmarestia aculeata (Linnaeus) J.V.Lamouroux, 1813
 Desmarestia anceps Montagne, 1842
 Desmarestia antarctica R.L.Moe &amp; P.C.Silva, 1989
